--- a/data/多ID选手对照表.xlsx
+++ b/data/多ID选手对照表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="128">
   <si>
     <t>参赛ID-</t>
   </si>
@@ -400,10 +400,57 @@
     <t>Billy_Maqiang</t>
   </si>
   <si>
-    <t>香手会-世界の大統領</t>
+    <r>
+      <t>香手会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>世界</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大統領</t>
+    </r>
   </si>
   <si>
     <t>番茄2号</t>
+  </si>
+  <si>
+    <t>麻久</t>
+  </si>
+  <si>
+    <t>麻九</t>
+  </si>
+  <si>
+    <t>世界大統領</t>
   </si>
 </sst>
 </file>
@@ -416,7 +463,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,6 +494,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -592,6 +645,12 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -942,137 +1001,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1092,6 +1151,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1567,10 +1629,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1" outlineLevelCol="2"/>
@@ -2656,7 +2718,7 @@
       <c r="C116" s="6"/>
     </row>
     <row r="117" ht="13.5" customHeight="1" spans="1:3">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="7" t="s">
         <v>123</v>
       </c>
       <c r="B117" s="2" t="s">
@@ -2672,6 +2734,22 @@
         <v>86</v>
       </c>
       <c r="C118" s="6"/>
+    </row>
+    <row r="119" customHeight="1" spans="1:2">
+      <c r="A119" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="120" customHeight="1" spans="1:2">
+      <c r="A120" t="s">
+        <v>127</v>
+      </c>
+      <c r="B120" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/data/多ID选手对照表.xlsx
+++ b/data/多ID选手对照表.xlsx
@@ -29,12 +29,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="128">
-  <si>
-    <t>参赛ID-</t>
-  </si>
-  <si>
-    <t>唯一ID-</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="129">
+  <si>
+    <t>参赛ID</t>
+  </si>
+  <si>
+    <t>唯一ID</t>
   </si>
   <si>
     <t>登录赛事</t>
@@ -67,6 +67,9 @@
     <t>海河二道闸</t>
   </si>
   <si>
+    <t>·</t>
+  </si>
+  <si>
     <t>wangwang</t>
   </si>
   <si>
@@ -401,6 +404,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>香手会</t>
     </r>
     <r>
@@ -1631,8 +1640,8 @@
   <sheetPr/>
   <dimension ref="A1:C120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1" outlineLevelCol="2"/>
@@ -1723,12 +1732,12 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="2" t="s">
@@ -1737,7 +1746,7 @@
     </row>
     <row r="11" ht="13.5" customHeight="1" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="2" t="s">
@@ -1746,7 +1755,7 @@
     </row>
     <row r="12" ht="13.5" customHeight="1" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="2" t="s">
@@ -1755,7 +1764,7 @@
     </row>
     <row r="13" ht="13.5" customHeight="1" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="2" t="s">
@@ -1764,10 +1773,10 @@
     </row>
     <row r="14" ht="13.5" customHeight="1" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>4</v>
@@ -1775,7 +1784,7 @@
     </row>
     <row r="15" ht="13.5" customHeight="1" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="2" t="s">
@@ -1784,7 +1793,7 @@
     </row>
     <row r="16" ht="13.5" customHeight="1" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="2" t="s">
@@ -1793,7 +1802,7 @@
     </row>
     <row r="17" ht="13.5" customHeight="1" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="2" t="s">
@@ -1802,7 +1811,7 @@
     </row>
     <row r="18" ht="13.5" customHeight="1" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="2" t="s">
@@ -1811,7 +1820,7 @@
     </row>
     <row r="19" ht="13.5" customHeight="1" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="2" t="s">
@@ -1820,7 +1829,7 @@
     </row>
     <row r="20" ht="13.5" customHeight="1" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="2" t="s">
@@ -1829,7 +1838,7 @@
     </row>
     <row r="21" ht="13.5" customHeight="1" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="2" t="s">
@@ -1838,7 +1847,7 @@
     </row>
     <row r="22" ht="13.5" customHeight="1" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="2" t="s">
@@ -1847,10 +1856,10 @@
     </row>
     <row r="23" ht="13.5" customHeight="1" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>4</v>
@@ -1858,7 +1867,7 @@
     </row>
     <row r="24" ht="13.5" customHeight="1" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="2" t="s">
@@ -1867,7 +1876,7 @@
     </row>
     <row r="25" ht="13.5" customHeight="1" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="2" t="s">
@@ -1876,7 +1885,7 @@
     </row>
     <row r="26" ht="13.5" customHeight="1" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="2" t="s">
@@ -1885,7 +1894,7 @@
     </row>
     <row r="27" ht="13.5" customHeight="1" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="2" t="s">
@@ -1894,7 +1903,7 @@
     </row>
     <row r="28" ht="13.5" customHeight="1" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="2" t="s">
@@ -1903,7 +1912,7 @@
     </row>
     <row r="29" ht="13.5" customHeight="1" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="2" t="s">
@@ -1912,10 +1921,10 @@
     </row>
     <row r="30" ht="13.5" customHeight="1" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>4</v>
@@ -1923,10 +1932,10 @@
     </row>
     <row r="31" ht="13.5" customHeight="1" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>4</v>
@@ -1934,7 +1943,7 @@
     </row>
     <row r="32" ht="13.5" customHeight="1" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="2" t="s">
@@ -1943,7 +1952,7 @@
     </row>
     <row r="33" ht="13.5" customHeight="1" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="2" t="s">
@@ -1952,10 +1961,10 @@
     </row>
     <row r="34" ht="13.5" customHeight="1" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>4</v>
@@ -1963,7 +1972,7 @@
     </row>
     <row r="35" ht="13.5" customHeight="1" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="2" t="s">
@@ -1972,7 +1981,7 @@
     </row>
     <row r="36" ht="13.5" customHeight="1" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="2" t="s">
@@ -1981,7 +1990,7 @@
     </row>
     <row r="37" ht="13.5" customHeight="1" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="2" t="s">
@@ -1999,7 +2008,7 @@
     </row>
     <row r="39" ht="13.5" customHeight="1" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="2" t="s">
@@ -2008,7 +2017,7 @@
     </row>
     <row r="40" ht="13.5" customHeight="1" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="2" t="s">
@@ -2017,7 +2026,7 @@
     </row>
     <row r="41" ht="13.5" customHeight="1" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="2" t="s">
@@ -2026,7 +2035,7 @@
     </row>
     <row r="42" ht="13.5" customHeight="1" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="2" t="s">
@@ -2035,7 +2044,7 @@
     </row>
     <row r="43" ht="13.5" customHeight="1" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="2" t="s">
@@ -2044,7 +2053,7 @@
     </row>
     <row r="44" ht="13.5" customHeight="1" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="2" t="s">
@@ -2053,7 +2062,7 @@
     </row>
     <row r="45" ht="13.5" customHeight="1" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="2" t="s">
@@ -2062,7 +2071,7 @@
     </row>
     <row r="46" ht="13.5" customHeight="1" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="2" t="s">
@@ -2071,7 +2080,7 @@
     </row>
     <row r="47" ht="13.5" customHeight="1" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="2" t="s">
@@ -2080,10 +2089,10 @@
     </row>
     <row r="48" ht="13.5" customHeight="1" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>4</v>
@@ -2091,7 +2100,7 @@
     </row>
     <row r="49" ht="13.5" customHeight="1" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="2" t="s">
@@ -2100,7 +2109,7 @@
     </row>
     <row r="50" ht="13.5" customHeight="1" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="2" t="s">
@@ -2109,7 +2118,7 @@
     </row>
     <row r="51" ht="13.5" customHeight="1" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="2" t="s">
@@ -2118,7 +2127,7 @@
     </row>
     <row r="52" ht="13.5" customHeight="1" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="2" t="s">
@@ -2127,7 +2136,7 @@
     </row>
     <row r="53" ht="13.5" customHeight="1" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="2" t="s">
@@ -2136,7 +2145,7 @@
     </row>
     <row r="54" ht="13.5" customHeight="1" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="2" t="s">
@@ -2145,7 +2154,7 @@
     </row>
     <row r="55" ht="13.5" customHeight="1" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="2" t="s">
@@ -2154,7 +2163,7 @@
     </row>
     <row r="56" ht="13.5" customHeight="1" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="2" t="s">
@@ -2163,7 +2172,7 @@
     </row>
     <row r="57" ht="13.5" customHeight="1" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="2" t="s">
@@ -2172,7 +2181,7 @@
     </row>
     <row r="58" ht="13.5" customHeight="1" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="2" t="s">
@@ -2181,7 +2190,7 @@
     </row>
     <row r="59" ht="13.5" customHeight="1" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="2" t="s">
@@ -2190,7 +2199,7 @@
     </row>
     <row r="60" ht="13.5" customHeight="1" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="2" t="s">
@@ -2199,7 +2208,7 @@
     </row>
     <row r="61" ht="13.5" customHeight="1" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="2" t="s">
@@ -2208,7 +2217,7 @@
     </row>
     <row r="62" ht="13.5" customHeight="1" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="2" t="s">
@@ -2217,231 +2226,231 @@
     </row>
     <row r="63" ht="13.5" customHeight="1" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" ht="13.5" customHeight="1" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" ht="13.5" customHeight="1" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" ht="13.5" customHeight="1" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" ht="13.5" customHeight="1" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" ht="13.5" customHeight="1" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" ht="13.5" customHeight="1" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" ht="13.5" customHeight="1" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" ht="13.5" customHeight="1" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" ht="13.5" customHeight="1" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" ht="13.5" customHeight="1" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" ht="13.5" customHeight="1" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" ht="13.5" customHeight="1" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" ht="13.5" customHeight="1" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77" ht="13.5" customHeight="1" spans="1:3">
       <c r="A77" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" ht="13.5" customHeight="1" spans="1:3">
       <c r="A78" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" ht="13.5" customHeight="1" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" ht="13.5" customHeight="1" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" ht="13.5" customHeight="1" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" ht="13.5" customHeight="1" spans="1:3">
       <c r="A82" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" ht="13.5" customHeight="1" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" ht="13.5" customHeight="1" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" ht="13.5" customHeight="1" spans="1:3">
       <c r="A85" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" ht="13.5" customHeight="1" spans="1:3">
       <c r="A86" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87" ht="13.5" customHeight="1" spans="1:3">
       <c r="A87" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" ht="13.5" customHeight="1" spans="1:3">
@@ -2449,73 +2458,73 @@
         <v>614</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" ht="13.5" customHeight="1" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" ht="13.5" customHeight="1" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" ht="13.5" customHeight="1" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" ht="13.5" customHeight="1" spans="1:3">
       <c r="A92" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" ht="13.5" customHeight="1" spans="1:3">
       <c r="A93" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" ht="13.5" customHeight="1" spans="1:3">
       <c r="A94" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" ht="13.5" customHeight="1" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" ht="13.5" customHeight="1" spans="1:3">
@@ -2524,231 +2533,231 @@
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="97" ht="13.5" customHeight="1" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98" ht="13.5" customHeight="1" spans="1:3">
       <c r="A98" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="99" ht="13.5" customHeight="1" spans="1:3">
       <c r="A99" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="100" ht="13.5" customHeight="1" spans="1:3">
       <c r="A100" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="101" ht="13.5" customHeight="1" spans="1:3">
       <c r="A101" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="102" ht="13.5" customHeight="1" spans="1:3">
       <c r="A102" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="103" ht="13.5" customHeight="1" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="104" ht="13.5" customHeight="1" spans="1:3">
       <c r="A104" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="105" ht="13.5" customHeight="1" spans="1:3">
       <c r="A105" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="106" ht="13.5" customHeight="1" spans="1:3">
       <c r="A106" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="107" ht="13.5" customHeight="1" spans="1:3">
       <c r="A107" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108" ht="13.5" customHeight="1" spans="1:3">
       <c r="A108" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" ht="13.5" customHeight="1" spans="1:3">
       <c r="A109" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110" ht="13.5" customHeight="1" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111" ht="13.5" customHeight="1" spans="1:3">
       <c r="A111" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112" ht="13.5" customHeight="1" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113" ht="13.5" customHeight="1" spans="1:3">
       <c r="A113" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C113" s="6"/>
     </row>
     <row r="114" ht="13.5" customHeight="1" spans="1:3">
       <c r="A114" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C114" s="6"/>
     </row>
     <row r="115" ht="13.5" customHeight="1" spans="1:3">
       <c r="A115" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C115" s="6"/>
     </row>
     <row r="116" ht="13.5" customHeight="1" spans="1:3">
       <c r="A116" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C116" s="6"/>
     </row>
     <row r="117" ht="13.5" customHeight="1" spans="1:3">
       <c r="A117" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C117" s="6"/>
     </row>
     <row r="118" ht="13.5" customHeight="1" spans="1:3">
       <c r="A118" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C118" s="6"/>
     </row>
     <row r="119" customHeight="1" spans="1:2">
       <c r="A119" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B119" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="120" customHeight="1" spans="1:2">
       <c r="A120" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B120" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/data/多ID选手对照表.xlsx
+++ b/data/多ID选手对照表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="128">
   <si>
     <t>参赛ID</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>海河二道闸</t>
-  </si>
-  <si>
-    <t>·</t>
   </si>
   <si>
     <t>wangwang</t>
@@ -1641,7 +1638,7 @@
   <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1" outlineLevelCol="2"/>
@@ -1732,12 +1729,12 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="2" t="s">
@@ -1746,7 +1743,7 @@
     </row>
     <row r="11" ht="13.5" customHeight="1" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="2" t="s">
@@ -1755,7 +1752,7 @@
     </row>
     <row r="12" ht="13.5" customHeight="1" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="2" t="s">
@@ -1764,7 +1761,7 @@
     </row>
     <row r="13" ht="13.5" customHeight="1" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="2" t="s">
@@ -1773,10 +1770,10 @@
     </row>
     <row r="14" ht="13.5" customHeight="1" spans="1:3">
       <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>4</v>
@@ -1784,7 +1781,7 @@
     </row>
     <row r="15" ht="13.5" customHeight="1" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="2" t="s">
@@ -1793,7 +1790,7 @@
     </row>
     <row r="16" ht="13.5" customHeight="1" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="2" t="s">
@@ -1802,7 +1799,7 @@
     </row>
     <row r="17" ht="13.5" customHeight="1" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="2" t="s">
@@ -1811,7 +1808,7 @@
     </row>
     <row r="18" ht="13.5" customHeight="1" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="2" t="s">
@@ -1820,7 +1817,7 @@
     </row>
     <row r="19" ht="13.5" customHeight="1" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="2" t="s">
@@ -1829,7 +1826,7 @@
     </row>
     <row r="20" ht="13.5" customHeight="1" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="2" t="s">
@@ -1838,7 +1835,7 @@
     </row>
     <row r="21" ht="13.5" customHeight="1" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="2" t="s">
@@ -1847,7 +1844,7 @@
     </row>
     <row r="22" ht="13.5" customHeight="1" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="2" t="s">
@@ -1856,10 +1853,10 @@
     </row>
     <row r="23" ht="13.5" customHeight="1" spans="1:3">
       <c r="A23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>4</v>
@@ -1867,7 +1864,7 @@
     </row>
     <row r="24" ht="13.5" customHeight="1" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="2" t="s">
@@ -1876,7 +1873,7 @@
     </row>
     <row r="25" ht="13.5" customHeight="1" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="2" t="s">
@@ -1885,7 +1882,7 @@
     </row>
     <row r="26" ht="13.5" customHeight="1" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="2" t="s">
@@ -1894,7 +1891,7 @@
     </row>
     <row r="27" ht="13.5" customHeight="1" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="2" t="s">
@@ -1903,7 +1900,7 @@
     </row>
     <row r="28" ht="13.5" customHeight="1" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="2" t="s">
@@ -1912,7 +1909,7 @@
     </row>
     <row r="29" ht="13.5" customHeight="1" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="2" t="s">
@@ -1921,10 +1918,10 @@
     </row>
     <row r="30" ht="13.5" customHeight="1" spans="1:3">
       <c r="A30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>4</v>
@@ -1932,10 +1929,10 @@
     </row>
     <row r="31" ht="13.5" customHeight="1" spans="1:3">
       <c r="A31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>4</v>
@@ -1943,7 +1940,7 @@
     </row>
     <row r="32" ht="13.5" customHeight="1" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="2" t="s">
@@ -1952,7 +1949,7 @@
     </row>
     <row r="33" ht="13.5" customHeight="1" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="2" t="s">
@@ -1961,10 +1958,10 @@
     </row>
     <row r="34" ht="13.5" customHeight="1" spans="1:3">
       <c r="A34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>4</v>
@@ -1972,7 +1969,7 @@
     </row>
     <row r="35" ht="13.5" customHeight="1" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="2" t="s">
@@ -1981,7 +1978,7 @@
     </row>
     <row r="36" ht="13.5" customHeight="1" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="2" t="s">
@@ -1990,7 +1987,7 @@
     </row>
     <row r="37" ht="13.5" customHeight="1" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="2" t="s">
@@ -2008,7 +2005,7 @@
     </row>
     <row r="39" ht="13.5" customHeight="1" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="2" t="s">
@@ -2017,7 +2014,7 @@
     </row>
     <row r="40" ht="13.5" customHeight="1" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="2" t="s">
@@ -2026,7 +2023,7 @@
     </row>
     <row r="41" ht="13.5" customHeight="1" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="2" t="s">
@@ -2035,7 +2032,7 @@
     </row>
     <row r="42" ht="13.5" customHeight="1" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="2" t="s">
@@ -2044,7 +2041,7 @@
     </row>
     <row r="43" ht="13.5" customHeight="1" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="2" t="s">
@@ -2053,7 +2050,7 @@
     </row>
     <row r="44" ht="13.5" customHeight="1" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="2" t="s">
@@ -2062,7 +2059,7 @@
     </row>
     <row r="45" ht="13.5" customHeight="1" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="2" t="s">
@@ -2071,7 +2068,7 @@
     </row>
     <row r="46" ht="13.5" customHeight="1" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="2" t="s">
@@ -2080,7 +2077,7 @@
     </row>
     <row r="47" ht="13.5" customHeight="1" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="2" t="s">
@@ -2089,10 +2086,10 @@
     </row>
     <row r="48" ht="13.5" customHeight="1" spans="1:3">
       <c r="A48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>4</v>
@@ -2100,7 +2097,7 @@
     </row>
     <row r="49" ht="13.5" customHeight="1" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="2" t="s">
@@ -2109,7 +2106,7 @@
     </row>
     <row r="50" ht="13.5" customHeight="1" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="2" t="s">
@@ -2118,7 +2115,7 @@
     </row>
     <row r="51" ht="13.5" customHeight="1" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="2" t="s">
@@ -2127,7 +2124,7 @@
     </row>
     <row r="52" ht="13.5" customHeight="1" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="2" t="s">
@@ -2136,7 +2133,7 @@
     </row>
     <row r="53" ht="13.5" customHeight="1" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="2" t="s">
@@ -2145,7 +2142,7 @@
     </row>
     <row r="54" ht="13.5" customHeight="1" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="2" t="s">
@@ -2154,7 +2151,7 @@
     </row>
     <row r="55" ht="13.5" customHeight="1" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="2" t="s">
@@ -2163,7 +2160,7 @@
     </row>
     <row r="56" ht="13.5" customHeight="1" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="2" t="s">
@@ -2172,7 +2169,7 @@
     </row>
     <row r="57" ht="13.5" customHeight="1" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="2" t="s">
@@ -2181,7 +2178,7 @@
     </row>
     <row r="58" ht="13.5" customHeight="1" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="2" t="s">
@@ -2190,7 +2187,7 @@
     </row>
     <row r="59" ht="13.5" customHeight="1" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="2" t="s">
@@ -2199,7 +2196,7 @@
     </row>
     <row r="60" ht="13.5" customHeight="1" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="2" t="s">
@@ -2208,7 +2205,7 @@
     </row>
     <row r="61" ht="13.5" customHeight="1" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="2" t="s">
@@ -2217,7 +2214,7 @@
     </row>
     <row r="62" ht="13.5" customHeight="1" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="2" t="s">
@@ -2226,231 +2223,231 @@
     </row>
     <row r="63" ht="13.5" customHeight="1" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" ht="13.5" customHeight="1" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" ht="13.5" customHeight="1" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" ht="13.5" customHeight="1" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" ht="13.5" customHeight="1" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" ht="13.5" customHeight="1" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" ht="13.5" customHeight="1" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" ht="13.5" customHeight="1" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" ht="13.5" customHeight="1" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" ht="13.5" customHeight="1" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" ht="13.5" customHeight="1" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" ht="13.5" customHeight="1" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" ht="13.5" customHeight="1" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" ht="13.5" customHeight="1" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" ht="13.5" customHeight="1" spans="1:3">
       <c r="A77" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" ht="13.5" customHeight="1" spans="1:3">
       <c r="A78" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" ht="13.5" customHeight="1" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" ht="13.5" customHeight="1" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" ht="13.5" customHeight="1" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" ht="13.5" customHeight="1" spans="1:3">
       <c r="A82" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" ht="13.5" customHeight="1" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" ht="13.5" customHeight="1" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" ht="13.5" customHeight="1" spans="1:3">
       <c r="A85" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" ht="13.5" customHeight="1" spans="1:3">
       <c r="A86" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" ht="13.5" customHeight="1" spans="1:3">
       <c r="A87" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" ht="13.5" customHeight="1" spans="1:3">
@@ -2458,73 +2455,73 @@
         <v>614</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89" ht="13.5" customHeight="1" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" ht="13.5" customHeight="1" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" ht="13.5" customHeight="1" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" ht="13.5" customHeight="1" spans="1:3">
       <c r="A92" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" ht="13.5" customHeight="1" spans="1:3">
       <c r="A93" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" ht="13.5" customHeight="1" spans="1:3">
       <c r="A94" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" ht="13.5" customHeight="1" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" ht="13.5" customHeight="1" spans="1:3">
@@ -2533,231 +2530,231 @@
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" ht="13.5" customHeight="1" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" ht="13.5" customHeight="1" spans="1:3">
       <c r="A98" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" ht="13.5" customHeight="1" spans="1:3">
       <c r="A99" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100" ht="13.5" customHeight="1" spans="1:3">
       <c r="A100" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101" ht="13.5" customHeight="1" spans="1:3">
       <c r="A101" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102" ht="13.5" customHeight="1" spans="1:3">
       <c r="A102" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103" ht="13.5" customHeight="1" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104" ht="13.5" customHeight="1" spans="1:3">
       <c r="A104" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="105" ht="13.5" customHeight="1" spans="1:3">
       <c r="A105" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="106" ht="13.5" customHeight="1" spans="1:3">
       <c r="A106" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="107" ht="13.5" customHeight="1" spans="1:3">
       <c r="A107" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="108" ht="13.5" customHeight="1" spans="1:3">
       <c r="A108" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="109" ht="13.5" customHeight="1" spans="1:3">
       <c r="A109" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="110" ht="13.5" customHeight="1" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111" ht="13.5" customHeight="1" spans="1:3">
       <c r="A111" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="112" ht="13.5" customHeight="1" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113" ht="13.5" customHeight="1" spans="1:3">
       <c r="A113" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C113" s="6"/>
     </row>
     <row r="114" ht="13.5" customHeight="1" spans="1:3">
       <c r="A114" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C114" s="6"/>
     </row>
     <row r="115" ht="13.5" customHeight="1" spans="1:3">
       <c r="A115" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C115" s="6"/>
     </row>
     <row r="116" ht="13.5" customHeight="1" spans="1:3">
       <c r="A116" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C116" s="6"/>
     </row>
     <row r="117" ht="13.5" customHeight="1" spans="1:3">
       <c r="A117" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C117" s="6"/>
     </row>
     <row r="118" ht="13.5" customHeight="1" spans="1:3">
       <c r="A118" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C118" s="6"/>
     </row>
     <row r="119" customHeight="1" spans="1:2">
       <c r="A119" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" t="s">
         <v>126</v>
-      </c>
-      <c r="B119" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="120" customHeight="1" spans="1:2">
       <c r="A120" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B120" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
